--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1233.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1233.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>3.303607351052772</v>
+        <v>1.203534245491028</v>
       </c>
       <c r="B1">
-        <v>2.297190544090026</v>
+        <v>1.837275624275208</v>
       </c>
       <c r="C1">
-        <v>1.846615312416479</v>
+        <v>-1</v>
       </c>
       <c r="D1">
-        <v>1.71741125390615</v>
+        <v>1.886786222457886</v>
       </c>
       <c r="E1">
-        <v>1.514600287185913</v>
+        <v>1.205102920532227</v>
       </c>
     </row>
   </sheetData>
